--- a/step3/2_days_excel_results/couchbase-jvm-core_final.xlsx
+++ b/step3/2_days_excel_results/couchbase-jvm-core_final.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomlin/Documents/GitHub/cmput402-project/step3/2_days_excel_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cmput402-project\step3\2_days_excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB88B4-D6B2-494F-9CA9-648864CAC7BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B153256-2C56-45FC-AD5F-F9DBA7CAB688}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="27080" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Not DA" sheetId="2" r:id="rId1"/>
     <sheet name="DA" sheetId="3" r:id="rId2"/>
-    <sheet name="couchbase-jvm-core_final" sheetId="1" r:id="rId3"/>
+    <sheet name="False DA" sheetId="4" r:id="rId3"/>
+    <sheet name="couchbase-jvm-core_final" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'couchbase-jvm-core_final'!$A$1:$I$371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'couchbase-jvm-core_final'!$A$1:$I$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId4"/>
-    <pivotCache cacheId="35" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>close_date</t>
   </si>
@@ -112,25 +114,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -138,7 +140,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +148,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,35 +156,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +192,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,14 +200,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,14 +215,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +230,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,15 +238,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -602,9 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -707,7 +716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -727,47 +736,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -931,7 +899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836901279"/>
@@ -990,7 +958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="790696367"/>
@@ -1032,7 +1000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1069,7 +1037,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1140,7 +1108,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1160,47 +1128,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1358,7 +1285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="857287839"/>
@@ -1417,7 +1344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="857286159"/>
@@ -1459,7 +1386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1496,7 +1423,405 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[couchbase-jvm-core_final.xlsx]False DA!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'False DA'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'False DA'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5-0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6-0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7-0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8-0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'False DA'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C53-4986-BCFA-11CDC538AA0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="3537504"/>
+        <c:axId val="3534552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="3537504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3534552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="3534552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3537504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1564,6 +1889,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2609,6 +2974,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2671,6 +3539,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91A4522-7DCB-C748-9364-B7B37BE7C2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85DBC1D-5F8E-44EB-874E-4378E0BD7E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,6 +3690,59 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roy" refreshedDate="43551.690469328707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="299" xr:uid="{EBAEC5E0-4A0F-448B-9227-701FBDE6798A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G72:G371" sheet="couchbase-jvm-core_final"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="17">
+        <n v="1"/>
+        <n v="0.66666666666666596"/>
+        <n v="0.75"/>
+        <n v="0.5"/>
+        <n v="0"/>
+        <n v="0.33333333333333298"/>
+        <n v="0.875"/>
+        <n v="0.80952380952380898"/>
+        <n v="0.25"/>
+        <n v="0.8125"/>
+        <n v="0.8"/>
+        <n v="0.28571428571428498"/>
+        <n v="0.16666666666666599"/>
+        <n v="0.85714285714285698"/>
+        <n v="0.2"/>
+        <n v="0.88888888888888795"/>
+        <n v="0.4"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr startNum="0" endNum="1" groupInterval="0.1"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-0.1"/>
+          <s v="0.1-0.2"/>
+          <s v="0.2-0.3"/>
+          <s v="0.3-0.4"/>
+          <s v="0.4-0.5"/>
+          <s v="0.5-0.6"/>
+          <s v="0.6-0.7"/>
+          <s v="0.7-0.8"/>
+          <s v="0.8-0.9"/>
+          <s v="0.9-1"/>
+          <s v="&gt;1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
   <r>
@@ -3217,8 +4179,910 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="299">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C050F550-347E-DC49-A14D-C0D59058C1E4}" name="PivotTable8" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C050F550-347E-DC49-A14D-C0D59058C1E4}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3304,7 +5168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6F5B89-3138-3649-BF0E-9024C07A8E69}" name="PivotTable9" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6F5B89-3138-3649-BF0E-9024C07A8E69}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3362,6 +5226,95 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of DirectlyApproveRate" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80784196-7444-438A-9A47-EA245A680254}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField name="DirectlyApproveRate" axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of DirectlyApproveRate" fld="0" subtotal="count" baseField="0" baseItem="5"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -3689,7 +5642,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -3707,7 +5660,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>47</v>
       </c>
     </row>
@@ -3715,7 +5668,7 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
@@ -3723,7 +5676,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
@@ -3731,7 +5684,7 @@
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
@@ -3739,7 +5692,7 @@
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -3747,7 +5700,7 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
@@ -3755,7 +5708,7 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
@@ -3763,7 +5716,7 @@
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -3771,7 +5724,7 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>5</v>
       </c>
     </row>
@@ -3779,11 +5732,12 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3793,11 +5747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683AFEDA-A1A5-964E-8A85-338826A0553A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -3815,7 +5769,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>5</v>
       </c>
     </row>
@@ -3823,7 +5777,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
@@ -3831,7 +5785,7 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
@@ -3839,7 +5793,7 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>6</v>
       </c>
     </row>
@@ -3847,7 +5801,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
@@ -3855,7 +5809,7 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
@@ -3863,7 +5817,7 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +5825,7 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>47</v>
       </c>
     </row>
@@ -3879,34 +5833,152 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E285FCA-A4C3-4832-B691-15801BA1CDB4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D72" sqref="A72:XFD72"/>
+    <sheetView topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73:G371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.80859375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6249,35 +8321,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1">
-      <c r="A72" s="5">
+    <row r="72" spans="1:10" s="4" customFormat="1">
+      <c r="A72" s="4">
         <v>363</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>43047</v>
       </c>
-      <c r="C72" s="5">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <v>2</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5">
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14959,6 +17031,7 @@
       <sortCondition descending="1" ref="I1:I371"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>